--- a/TuduApplication/TestData/NewProject.xlsx
+++ b/TuduApplication/TestData/NewProject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikesh\git\MYtudu\TuduApplication\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819F5EB2-D1C8-4975-B515-0DC79BF61B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8507D4EF-76BD-427F-AC5D-0F4843D8C2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E7554D94-690C-4CD3-9D75-8B2892EC350D}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>abc</t>
   </si>
   <si>
-    <t>Vikesh Ten project</t>
+    <t>A7 new project</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
